--- a/natmiOut/OldD7/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.90486369537854</v>
+        <v>4.551825333333333</v>
       </c>
       <c r="H2">
-        <v>3.90486369537854</v>
+        <v>13.655476</v>
       </c>
       <c r="I2">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="J2">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>26.63656779641694</v>
+        <v>37.01195691246133</v>
       </c>
       <c r="R2">
-        <v>26.63656779641694</v>
+        <v>333.107612212152</v>
       </c>
       <c r="S2">
-        <v>0.007416533364155492</v>
+        <v>0.008158778276676708</v>
       </c>
       <c r="T2">
-        <v>0.007416533364155492</v>
+        <v>0.00815877827667671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.90486369537854</v>
+        <v>4.551825333333333</v>
       </c>
       <c r="H3">
-        <v>3.90486369537854</v>
+        <v>13.655476</v>
       </c>
       <c r="I3">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="J3">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>947.6119098632903</v>
+        <v>1107.806856986366</v>
       </c>
       <c r="R3">
-        <v>947.6119098632903</v>
+        <v>9970.261712877298</v>
       </c>
       <c r="S3">
-        <v>0.2638476323033474</v>
+        <v>0.2442008278814028</v>
       </c>
       <c r="T3">
-        <v>0.2638476323033474</v>
+        <v>0.2442008278814028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.90486369537854</v>
+        <v>4.551825333333333</v>
       </c>
       <c r="H4">
-        <v>3.90486369537854</v>
+        <v>13.655476</v>
       </c>
       <c r="I4">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="J4">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>344.8831461391015</v>
+        <v>473.1287343791711</v>
       </c>
       <c r="R4">
-        <v>344.8831461391015</v>
+        <v>4258.15860941254</v>
       </c>
       <c r="S4">
-        <v>0.09602728773560806</v>
+        <v>0.104294740460607</v>
       </c>
       <c r="T4">
-        <v>0.09602728773560806</v>
+        <v>0.1042947404606071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.90486369537854</v>
+        <v>4.551825333333333</v>
       </c>
       <c r="H5">
-        <v>3.90486369537854</v>
+        <v>13.655476</v>
       </c>
       <c r="I5">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="J5">
-        <v>0.3977118277117446</v>
+        <v>0.3901863008207799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>109.2551361773003</v>
+        <v>152.1163098237831</v>
       </c>
       <c r="R5">
-        <v>109.2551361773003</v>
+        <v>1369.046788414048</v>
       </c>
       <c r="S5">
-        <v>0.03042037430863363</v>
+        <v>0.03353195420209334</v>
       </c>
       <c r="T5">
-        <v>0.03042037430863363</v>
+        <v>0.03353195420209334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.27909820623598</v>
+        <v>3.622039333333333</v>
       </c>
       <c r="H6">
-        <v>3.27909820623598</v>
+        <v>10.866118</v>
       </c>
       <c r="I6">
-        <v>0.3339773786193557</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="J6">
-        <v>0.3339773786193557</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>22.36798221276881</v>
+        <v>29.45164937653733</v>
       </c>
       <c r="R6">
-        <v>22.36798221276881</v>
+        <v>265.064844388836</v>
       </c>
       <c r="S6">
-        <v>0.006228012844513391</v>
+        <v>0.006492212171161645</v>
       </c>
       <c r="T6">
-        <v>0.006228012844513391</v>
+        <v>0.006492212171161647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.27909820623598</v>
+        <v>3.622039333333333</v>
       </c>
       <c r="H7">
-        <v>3.27909820623598</v>
+        <v>10.866118</v>
       </c>
       <c r="I7">
-        <v>0.3339773786193557</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="J7">
-        <v>0.3339773786193557</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>795.7544119960228</v>
+        <v>881.518888775681</v>
       </c>
       <c r="R7">
-        <v>795.7544119960228</v>
+        <v>7933.66999898113</v>
       </c>
       <c r="S7">
-        <v>0.2215653004301973</v>
+        <v>0.194318748863607</v>
       </c>
       <c r="T7">
-        <v>0.2215653004301973</v>
+        <v>0.194318748863607</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.27909820623598</v>
+        <v>3.622039333333333</v>
       </c>
       <c r="H8">
-        <v>3.27909820623598</v>
+        <v>10.866118</v>
       </c>
       <c r="I8">
-        <v>0.3339773786193557</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="J8">
-        <v>0.3339773786193557</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>289.6146431959179</v>
+        <v>376.4843244537744</v>
       </c>
       <c r="R8">
-        <v>289.6146431959179</v>
+        <v>3388.35892008397</v>
       </c>
       <c r="S8">
-        <v>0.08063864235164137</v>
+        <v>0.08299080578548346</v>
       </c>
       <c r="T8">
-        <v>0.08063864235164137</v>
+        <v>0.08299080578548347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.27909820623598</v>
+        <v>3.622039333333333</v>
       </c>
       <c r="H9">
-        <v>3.27909820623598</v>
+        <v>10.866118</v>
       </c>
       <c r="I9">
-        <v>0.3339773786193557</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="J9">
-        <v>0.3339773786193557</v>
+        <v>0.3104842618962599</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>91.74669054007107</v>
+        <v>121.0440245561404</v>
       </c>
       <c r="R9">
-        <v>91.74669054007107</v>
+        <v>1089.396221005264</v>
       </c>
       <c r="S9">
-        <v>0.02554542299300351</v>
+        <v>0.02668249507600775</v>
       </c>
       <c r="T9">
-        <v>0.02554542299300351</v>
+        <v>0.02668249507600776</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.848552925462406</v>
+        <v>1.291101666666667</v>
       </c>
       <c r="H10">
-        <v>0.848552925462406</v>
+        <v>3.873305</v>
       </c>
       <c r="I10">
-        <v>0.08642543279941192</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="J10">
-        <v>0.08642543279941192</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>5.788303841355006</v>
+        <v>10.49824976945667</v>
       </c>
       <c r="R10">
-        <v>5.788303841355006</v>
+        <v>94.48424792511</v>
       </c>
       <c r="S10">
-        <v>0.001611662166439232</v>
+        <v>0.002314195176568234</v>
       </c>
       <c r="T10">
-        <v>0.001611662166439232</v>
+        <v>0.002314195176568234</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.848552925462406</v>
+        <v>1.291101666666667</v>
       </c>
       <c r="H11">
-        <v>0.848552925462406</v>
+        <v>3.873305</v>
       </c>
       <c r="I11">
-        <v>0.08642543279941192</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="J11">
-        <v>0.08642543279941192</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>205.9223883458915</v>
+        <v>314.2236739458645</v>
       </c>
       <c r="R11">
-        <v>205.9223883458915</v>
+        <v>2828.01306551278</v>
       </c>
       <c r="S11">
-        <v>0.05733585029672354</v>
+        <v>0.06926629929540186</v>
       </c>
       <c r="T11">
-        <v>0.05733585029672354</v>
+        <v>0.06926629929540186</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.848552925462406</v>
+        <v>1.291101666666667</v>
       </c>
       <c r="H12">
-        <v>0.848552925462406</v>
+        <v>3.873305</v>
       </c>
       <c r="I12">
-        <v>0.08642543279941192</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="J12">
-        <v>0.08642543279941192</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>74.94540793968565</v>
+        <v>134.2005135898972</v>
       </c>
       <c r="R12">
-        <v>74.94540793968565</v>
+        <v>1207.804622309075</v>
       </c>
       <c r="S12">
-        <v>0.02086737010275369</v>
+        <v>0.02958266264023104</v>
       </c>
       <c r="T12">
-        <v>0.02086737010275369</v>
+        <v>0.02958266264023104</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.848552925462406</v>
+        <v>1.291101666666667</v>
       </c>
       <c r="H13">
-        <v>0.848552925462406</v>
+        <v>3.873305</v>
       </c>
       <c r="I13">
-        <v>0.08642543279941192</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="J13">
-        <v>0.08642543279941192</v>
+        <v>0.1106743221474397</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>23.74186979554852</v>
+        <v>43.14700296218222</v>
       </c>
       <c r="R13">
-        <v>23.74186979554852</v>
+        <v>388.32302665964</v>
       </c>
       <c r="S13">
-        <v>0.006610550233495442</v>
+        <v>0.009511165035238548</v>
       </c>
       <c r="T13">
-        <v>0.006610550233495442</v>
+        <v>0.009511165035238548</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.78580945521906</v>
+        <v>2.200808</v>
       </c>
       <c r="H14">
-        <v>1.78580945521906</v>
+        <v>6.602424000000001</v>
       </c>
       <c r="I14">
-        <v>0.1818853608694878</v>
+        <v>0.1886551151355205</v>
       </c>
       <c r="J14">
-        <v>0.1818853608694878</v>
+        <v>0.1886551151355205</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>12.18168887219343</v>
+        <v>17.895284837072</v>
       </c>
       <c r="R14">
-        <v>12.18168887219343</v>
+        <v>161.057563533648</v>
       </c>
       <c r="S14">
-        <v>0.003391799673400014</v>
+        <v>0.003944770105751637</v>
       </c>
       <c r="T14">
-        <v>0.003391799673400014</v>
+        <v>0.003944770105751638</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.78580945521906</v>
+        <v>2.200808</v>
       </c>
       <c r="H15">
-        <v>1.78580945521906</v>
+        <v>6.602424000000001</v>
       </c>
       <c r="I15">
-        <v>0.1818853608694878</v>
+        <v>0.1886551151355205</v>
       </c>
       <c r="J15">
-        <v>0.1818853608694878</v>
+        <v>0.1886551151355205</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>433.3709037052591</v>
+        <v>535.6247251967894</v>
       </c>
       <c r="R15">
-        <v>433.3709037052591</v>
+        <v>4820.622526771105</v>
       </c>
       <c r="S15">
-        <v>0.1206653120983786</v>
+        <v>0.1180711244942354</v>
       </c>
       <c r="T15">
-        <v>0.1206653120983786</v>
+        <v>0.1180711244942354</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.78580945521906</v>
+        <v>2.200808</v>
       </c>
       <c r="H16">
-        <v>1.78580945521906</v>
+        <v>6.602424000000001</v>
       </c>
       <c r="I16">
-        <v>0.1818853608694878</v>
+        <v>0.1886551151355205</v>
       </c>
       <c r="J16">
-        <v>0.1818853608694878</v>
+        <v>0.1886551151355205</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>157.7252450706091</v>
+        <v>228.7577899851067</v>
       </c>
       <c r="R16">
-        <v>157.7252450706091</v>
+        <v>2058.820109865961</v>
       </c>
       <c r="S16">
-        <v>0.04391611379425273</v>
+        <v>0.05042651735398188</v>
       </c>
       <c r="T16">
-        <v>0.04391611379425273</v>
+        <v>0.05042651735398189</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.78580945521906</v>
+        <v>2.200808</v>
       </c>
       <c r="H17">
-        <v>1.78580945521906</v>
+        <v>6.602424000000001</v>
       </c>
       <c r="I17">
-        <v>0.1818853608694878</v>
+        <v>0.1886551151355205</v>
       </c>
       <c r="J17">
-        <v>0.1818853608694878</v>
+        <v>0.1886551151355205</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>49.96559942606523</v>
+        <v>73.54825088279468</v>
       </c>
       <c r="R17">
-        <v>49.96559942606523</v>
+        <v>661.9342579451521</v>
       </c>
       <c r="S17">
-        <v>0.01391213530345638</v>
+        <v>0.01621270318155163</v>
       </c>
       <c r="T17">
-        <v>0.01391213530345638</v>
+        <v>0.01621270318155163</v>
       </c>
     </row>
   </sheetData>
